--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_ro.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_ro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF8940-CBE9-4A15-BC04-608BB658A055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D0F7D-3270-2E4A-B872-B6B6C4210690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -350,16 +350,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -383,9 +377,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,21 +684,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -719,7 +712,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1100015</v>
       </c>
@@ -730,7 +723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1100023</v>
       </c>
@@ -741,7 +734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1100031</v>
       </c>
@@ -752,7 +745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1100049</v>
       </c>
@@ -763,7 +756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1100056</v>
       </c>
@@ -774,7 +767,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1100064</v>
       </c>
@@ -785,7 +778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1100072</v>
       </c>
@@ -796,7 +789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1100080</v>
       </c>
@@ -807,7 +800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1100098</v>
       </c>
@@ -818,7 +811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1100106</v>
       </c>
@@ -829,7 +822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1100114</v>
       </c>
@@ -840,7 +833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1100122</v>
       </c>
@@ -851,7 +844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1100130</v>
       </c>
@@ -862,7 +855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1100148</v>
       </c>
@@ -873,7 +866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1100155</v>
       </c>
@@ -884,7 +877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1100189</v>
       </c>
@@ -895,7 +888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1100205</v>
       </c>
@@ -906,7 +899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1100254</v>
       </c>
@@ -917,7 +910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1100262</v>
       </c>
@@ -928,7 +921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1100288</v>
       </c>
@@ -939,7 +932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1100296</v>
       </c>
@@ -950,7 +943,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1100304</v>
       </c>
@@ -961,7 +954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1100320</v>
       </c>
@@ -972,7 +965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1100338</v>
       </c>
@@ -983,7 +976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1100346</v>
       </c>
@@ -994,7 +987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1100379</v>
       </c>
@@ -1005,7 +998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1100403</v>
       </c>
@@ -1016,7 +1009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1100452</v>
       </c>
@@ -1027,7 +1020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1100502</v>
       </c>
@@ -1038,7 +1031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1100601</v>
       </c>
@@ -1049,7 +1042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1100700</v>
       </c>
@@ -1060,7 +1053,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1100809</v>
       </c>
@@ -1071,7 +1064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1100908</v>
       </c>
@@ -1082,7 +1075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1100924</v>
       </c>
@@ -1093,7 +1086,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1100940</v>
       </c>
@@ -1104,7 +1097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1101005</v>
       </c>
@@ -1115,7 +1108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1101104</v>
       </c>
@@ -1126,7 +1119,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1101203</v>
       </c>
@@ -1137,7 +1130,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1101302</v>
       </c>
@@ -1148,7 +1141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1101401</v>
       </c>
@@ -1159,7 +1152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1101435</v>
       </c>
@@ -1170,7 +1163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1101450</v>
       </c>
@@ -1181,7 +1174,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1101468</v>
       </c>
@@ -1192,7 +1185,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1101476</v>
       </c>
@@ -1203,7 +1196,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1101484</v>
       </c>
@@ -1214,7 +1207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1101492</v>
       </c>
@@ -1225,7 +1218,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1101500</v>
       </c>
@@ -1236,7 +1229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1101559</v>
       </c>
@@ -1247,7 +1240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1101609</v>
       </c>
@@ -1258,7 +1251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1101708</v>
       </c>
@@ -1269,7 +1262,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1101757</v>
       </c>
@@ -1280,7 +1273,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1101807</v>
       </c>
@@ -1290,9 +1283,6 @@
       <c r="C53" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
